--- a/docentes/Acevedo Rendón Ismael Arturo - Estadisticos 20242.xlsx
+++ b/docentes/Acevedo Rendón Ismael Arturo - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t>Mat</t>
   </si>
@@ -82,94 +82,13 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>COCOTLE</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>BASILIO</t>
-  </si>
-  <si>
-    <t>BERNABE</t>
-  </si>
-  <si>
-    <t>MARCELINO</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>TINOCO</t>
-  </si>
-  <si>
-    <t>RIOS</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>VILLEGAS</t>
-  </si>
-  <si>
-    <t>PAOLA</t>
-  </si>
-  <si>
-    <t>CRISTIAN</t>
-  </si>
-  <si>
-    <t>JULIO ALBERTO</t>
-  </si>
-  <si>
-    <t>NOHEMI ANGELICA</t>
-  </si>
-  <si>
-    <t>JOSUE</t>
-  </si>
-  <si>
-    <t>CLARA LIZBETH</t>
-  </si>
-  <si>
-    <t>HEIDI KESEI</t>
-  </si>
-  <si>
-    <t>GIANCARLO</t>
-  </si>
-  <si>
-    <t>ANA ISABEL</t>
-  </si>
-  <si>
-    <t>SAUL</t>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
   </si>
 </sst>
 </file>
@@ -648,7 +567,7 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -657,13 +576,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -719,16 +632,19 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>90.91</v>
+      </c>
+      <c r="H2">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -742,16 +658,19 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>92.31</v>
+      </c>
+      <c r="H3">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -765,16 +684,19 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -785,18 +707,15 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
         <v>0</v>
       </c>
     </row>
@@ -856,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>90.91</v>
       </c>
       <c r="H2">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -891,7 +810,7 @@
         <v>92.31</v>
       </c>
       <c r="H3">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -917,7 +836,7 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -928,18 +847,15 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
         <v>0</v>
       </c>
     </row>
@@ -950,7 +866,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -985,232 +901,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>23330051920339</v>
+        <v>23330051920301</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>23330051920289</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>23330051920290</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>23330051920303</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>23330051920319</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>23330051920287</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>23330051920288</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>23330051920300</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>23330051920302</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>23330051920304</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
